--- a/xlsx/eigem.xlsx
+++ b/xlsx/eigem.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>ndiv</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -574,8 +574,8 @@
     <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" dyDescent="0.25">
+      <c r="B1" t="s" s="1">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -590,11 +590,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -617,7 +617,7 @@
         <v>9.6910013008056406E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" dyDescent="0.25">
       <c r="B3" s="1">
         <v>16</v>
       </c>
@@ -637,7 +637,7 @@
         <v>-0.20411998265592399</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" dyDescent="0.25">
       <c r="B4" s="1">
         <v>32</v>
       </c>
@@ -657,7 +657,7 @@
         <v>-0.50514997831990505</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" dyDescent="0.25">
       <c r="B5" s="1">
         <v>64</v>
       </c>
@@ -677,7 +677,7 @@
         <v>-0.80617997398388697</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -700,7 +700,7 @@
         <v>9.6910013008056406E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1">
         <v>16</v>
@@ -721,7 +721,7 @@
         <v>-0.20411998265592399</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1">
         <v>32</v>
@@ -742,7 +742,7 @@
         <v>-0.50514997831990505</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1">
         <v>64</v>
@@ -763,13 +763,13 @@
         <v>-0.80617997398388697</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -789,7 +789,7 @@
         <v>3.9247295396536002</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" dyDescent="0.25">
       <c r="B13" s="1">
         <v>8</v>
       </c>
@@ -809,7 +809,7 @@
         <v>9.6910013008056406E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>16</v>
@@ -830,7 +830,7 @@
         <v>-0.20411998265592399</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1">
         <v>32</v>
@@ -851,7 +851,7 @@
         <v>-0.50514997831990505</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1">
         <v>64</v>
@@ -872,14 +872,14 @@
         <v>-0.80617997398388697</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="D17" s="8"/>
       <c r="E17" s="5"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -899,7 +899,7 @@
         <v>2.7424331645468998</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" dyDescent="0.25">
       <c r="B19" s="1">
         <v>8</v>
       </c>
@@ -919,7 +919,7 @@
         <v>9.6910013008056406E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" dyDescent="0.25">
       <c r="B20" s="1">
         <v>16</v>
       </c>
@@ -939,7 +939,7 @@
         <v>-0.20411998265592399</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" dyDescent="0.25">
       <c r="B21" s="1">
         <v>32</v>
       </c>
@@ -959,7 +959,7 @@
         <v>-0.50514997831990505</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" dyDescent="0.25">
       <c r="B22" s="1">
         <v>64</v>
       </c>
@@ -979,7 +979,7 @@
         <v>-0.80617997398388697</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>0.69897000433601797</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" dyDescent="0.25">
       <c r="B25" s="1">
         <v>8</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>9.6910013008056406E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" dyDescent="0.25">
       <c r="B26" s="1">
         <v>16</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>-0.20411998265592399</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" dyDescent="0.25">
       <c r="B27" s="1">
         <v>32</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>-0.50514997831990505</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" dyDescent="0.25">
       <c r="B28" s="1">
         <v>64</v>
       </c>
@@ -1103,11 +1103,11 @@
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8" dyDescent="0.25">
+      <c r="B1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="1">
         <v>15</v>
       </c>
       <c r="D1" t="s">
@@ -1122,11 +1122,11 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>9.6910013008056406E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" dyDescent="0.25">
       <c r="B3" s="1">
         <v>16</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>-0.20411998265592399</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" dyDescent="0.25">
       <c r="B4" s="1">
         <v>32</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>-0.50514997831990505</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" dyDescent="0.25">
       <c r="B5" s="1">
         <v>64</v>
       </c>
@@ -1221,11 +1221,11 @@
         <v>-0.80617997398388697</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" dyDescent="0.25">
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:8" dyDescent="0.25">
+      <c r="A7" t="s" s="10">
         <v>11</v>
       </c>
       <c r="B7" s="1">
@@ -1250,7 +1250,7 @@
         <v>9.6910013008056406E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" dyDescent="0.25">
       <c r="B8" s="1">
         <v>16</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>-0.20411998265592399</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" dyDescent="0.25">
       <c r="B9" s="1">
         <v>32</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>-0.50514997831990505</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" dyDescent="0.25">
       <c r="B10" s="1">
         <v>64</v>
       </c>
@@ -1319,11 +1319,11 @@
         <v>-0.80617997398388697</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" dyDescent="0.25">
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:8" dyDescent="0.25">
+      <c r="A12" t="s" s="10">
         <v>12</v>
       </c>
       <c r="B12" s="1">
@@ -1338,7 +1338,7 @@
       <c r="E12">
         <v>25</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" t="s" s="12">
         <v>13</v>
       </c>
       <c r="G12" s="13">
@@ -1348,7 +1348,7 @@
         <v>9.6910013008056406E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" dyDescent="0.25">
       <c r="B13" s="1">
         <v>16</v>
       </c>
@@ -1361,7 +1361,7 @@
       <c r="E13">
         <v>81</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" t="s" s="10">
         <v>14</v>
       </c>
       <c r="G13" s="13">
@@ -1371,7 +1371,7 @@
         <v>-0.20411998265592399</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" dyDescent="0.25">
       <c r="B14" s="1">
         <v>32</v>
       </c>
@@ -1384,7 +1384,7 @@
       <c r="E14">
         <v>289</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" t="s" s="10">
         <v>16</v>
       </c>
       <c r="G14" s="13">
@@ -1394,7 +1394,7 @@
         <v>-0.50514997831990505</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" dyDescent="0.25">
       <c r="B15" s="1">
         <v>64</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="E15">
         <v>1089</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" t="s" s="10">
         <v>17</v>
       </c>
       <c r="G15" s="13">
